--- a/files/registrace_2122.xlsx
+++ b/files/registrace_2122.xlsx
@@ -1,36 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E10112538\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0A3CC4-136D-427F-BDFE-969026B67A57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510"/>
   </bookViews>
   <sheets>
-    <sheet name="VPK DB, z.s. 18_19" sheetId="1" r:id="rId1"/>
+    <sheet name="VPK DB, z.s. 2022-23" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="4" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'VPK DB, z.s. 18_19'!$A$1:$E$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'VPK DB, z.s. 2022-23'!$A$1:$D$60</definedName>
   </definedNames>
   <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Václav</author>
     <author>Vaclav</author>
   </authors>
   <commentList>
-    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +58,7 @@
             <family val="2"/>
             <charset val="238"/>
           </rPr>
-          <t>V případě studenta, doktoranta, prosím povinně uveďte fakultu</t>
+          <t>V případě studenta, doktoranta, prosím, povinně uveďte fakultu</t>
         </r>
         <r>
           <rPr>
@@ -80,7 +74,59 @@
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve"> Prosím, zvýrazněte tučným písmem</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">   uveďte pouze: ANO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -107,8 +153,19 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="A50" authorId="1">
       <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Vaclav:</t>
+        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -118,43 +175,7 @@
             <charset val="238"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve"> Prosím, zvýrazněte</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B23" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">   uveďte pouze: ANO</t>
+Možnost až 34 samostatných vstupů po 120' včetně sauny v rámci akademického roku</t>
         </r>
       </text>
     </comment>
@@ -163,13 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
-  <si>
-    <t>Relevantní zvýrazněte</t>
-  </si>
-  <si>
-    <t>Vysvětlivky:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve">Číslo účtu: </t>
   </si>
@@ -177,12 +192,6 @@
     <t xml:space="preserve">Kód banky: </t>
   </si>
   <si>
-    <t>Pracující* / Student*</t>
-  </si>
-  <si>
-    <t>Vaše poznámka je-li potřeba:</t>
-  </si>
-  <si>
     <t>V případě neuhrazení členského poplatku v uvedeném, případně jinak sjednaném časovém horizontu, dojde</t>
   </si>
   <si>
@@ -204,9 +213,6 @@
     <t>Trvalé bydliště *</t>
   </si>
   <si>
-    <t>pro účely registrace a řádného vedení vašeho členství ve spolku VPK DEEP BLUE (identifikace plateb, aj.),</t>
-  </si>
-  <si>
     <t>Po zpracování údajů Vaší přihlášky Vám bude písemně potvrzena registrace do našeho klubu</t>
   </si>
   <si>
@@ -216,24 +222,9 @@
     <t>VYSOKOŠKOLSKÝ SPOLEK DEEP BLUE, z.s.</t>
   </si>
   <si>
-    <t xml:space="preserve">Členský příspěvek musí být uhrazen včas dle vypsaných termínů našeho spolku </t>
-  </si>
-  <si>
     <t xml:space="preserve"> dále pak s předáním těchto údajů Svazu potápěčů ČR za účelem vedení vašeho členství ve svazu, vystavení</t>
   </si>
   <si>
-    <t xml:space="preserve">          Studenti - 2000,- Kč   (pouze denní studium)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          Pracující - 2500,- Kč   (a jakkoliv dálkově studující)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          Studenti v rámci pot. kurzu (TV se zápočtem) - 1000,- Kč</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          Rodinné - 4000,- Kč   (manželé s dvěma dětmi mladších 15ti let)</t>
-  </si>
-  <si>
     <t>Hlásím se na Freedive*</t>
   </si>
   <si>
@@ -241,22 +232,6 @@
   </si>
   <si>
     <t>http://www.deepblue.cz/index.php?option=com_content&amp;view=category&amp;layout=blog&amp;id=27&amp;Itemid=62</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hlásím se na Kurz s přístrojem:                </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>na P1          na P2         na P3</t>
-    </r>
   </si>
   <si>
     <r>
@@ -282,20 +257,72 @@
     <t xml:space="preserve">Var. symb.: </t>
   </si>
   <si>
-    <t>… dle níže uvedeného linku:</t>
-  </si>
-  <si>
-    <t>Vždy také, prosím, vyplňujte i důvod platby (Členské, Půjčovné, Kurzovné atd.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pouze členství - plavání &amp; sauba / relax:               </t>
-  </si>
-  <si>
-    <t>Registrační karta 2021 - 2022</t>
+    <t xml:space="preserve"> UPOZORNĚNÍ: Příjmení a jméno &amp; RČ: musí odpovídat členovi, který náš servis fyzicky čerpá,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nikoli RČ toho, kdo za něj případně hradí.</t>
   </si>
   <si>
     <r>
       <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>* = musí být uvedeno pro řádnou registraci</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve"> Souhlasíte s použitím rodného čísla a dalších osobních údajů </t>
+    </r>
+  </si>
+  <si>
+    <t>Student* / Doktorant* / Pracující*</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hlásím se na: Kurz s přístrojem:                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>na P1          na P2         na P3</t>
+    </r>
+  </si>
+  <si>
+    <t>Vaše poznámka sem, je-li potřeba:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="Arial"/>
@@ -306,6 +333,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color indexed="12"/>
         <rFont val="Arial"/>
@@ -316,58 +344,62 @@
     </r>
   </si>
   <si>
-    <t>kvalifikačních karet - vše v souladu s GDPR. Zavazuji se dále tímto k dodržování systému O.N.T. - Covid-19</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>* = musí být uvedeno pro řádnou registraci</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve"> Souhlasíte s použitím rodného čísla a dalších osobních údajů </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> UPOZORNĚNÍ: Příjmení a jméno &amp; RČ: musí odpovídat členovi, který náš servis fyzicky čerpá,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nikoli RČ toho, kdo za něj případně hradí.</t>
-  </si>
-  <si>
-    <t>V případě přihlášení se do jakéhokoliv kurzu, je potřeba jej uhradit dle našich podmínek uvedených na našem webu. Nejpozději však do 31.12.2021</t>
+    <t>Registrační karta 2022 - 2023</t>
+  </si>
+  <si>
+    <t>pro účely registrace, řádného vedení vašeho členství ve spolku VPK DEEP BLUE (identifikace plateb, aj.),</t>
+  </si>
+  <si>
+    <t>kvalifikačních karet - vše v souladu s GDPR.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Členský příspěvek musí být uhrazen včas, dle zde níže uvedených termínů </t>
+  </si>
+  <si>
+    <t>Vždy také, prosím, vyplňujte i důvod platby (Členské, , Kurzovné, Půjčovné)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pouze plavání &amp; sauba               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Studenti v rámci pot. kurzu (TV se zápočtem) - 1500,- Kč</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Studenti - 2700,- Kč   (pouze denní studium)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Pracující - 3500,- Kč   (a jakkoliv dálkově studující)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Rodinné - 5500,- Kč   (manželé s dvěma dětmi mladších 15ti let)</t>
+  </si>
+  <si>
+    <t>V případě přihlášení se do jakéhokoli kurzu po termínu 1.2.2023 - je potřeba jej uhradit (včetně členského) nejpozději do 28.2.2023</t>
+  </si>
+  <si>
+    <t>Kurz:   6300,-Kč</t>
+  </si>
+  <si>
+    <t>Kurz:   6700,-Kč</t>
+  </si>
+  <si>
+    <t>Kurz:   8700,-Kč</t>
+  </si>
+  <si>
+    <t>Relevantní zvýrazněte zakroužkujte</t>
+  </si>
+  <si>
+    <t>U stávajících členů do 30.10. 22- Noví členové do 6.11.2022  - pro všechny zájemce.</t>
+  </si>
+  <si>
+    <t>34 vstupů</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="43" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -434,6 +466,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="238"/>
     </font>
     <font>
@@ -454,20 +487,6 @@
       <charset val="238"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -478,13 +497,6 @@
       <b/>
       <sz val="10"/>
       <color theme="0" tint="-0.499984740745262"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="23"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
@@ -555,43 +567,11 @@
       <charset val="238"/>
     </font>
     <font>
-      <b/>
-      <sz val="10.5"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <u/>
-      <sz val="9"/>
-      <color rgb="FFC00000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <i/>
-      <u/>
-      <sz val="9"/>
-      <color rgb="FFC00000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="238"/>
     </font>
     <font>
@@ -603,29 +583,6 @@
       <charset val="238"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
       <b/>
       <u/>
       <sz val="10"/>
@@ -638,15 +595,6 @@
       <b/>
       <i/>
       <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
@@ -662,7 +610,8 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <i/>
+      <sz val="12"/>
       <color rgb="FFC00000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -670,9 +619,25 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color rgb="FFC00000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
       <u/>
       <sz val="10"/>
-      <color rgb="FFC00000"/>
+      <color rgb="FF0070C0"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
@@ -680,14 +645,14 @@
     <font>
       <u/>
       <sz val="10"/>
-      <color rgb="FFC00000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFC00000"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
@@ -696,13 +661,116 @@
       <b/>
       <i/>
       <sz val="9"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="23"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="3" tint="-0.249977111117893"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="3" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="2" tint="-0.749992370372631"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -717,12 +785,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -845,189 +925,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1043,9 +1138,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv systému Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kancelář">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1083,9 +1178,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kancelář">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1118,26 +1213,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1170,26 +1248,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kancelář">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1362,426 +1423,430 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="44.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-    </row>
-    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+    </row>
+    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A4" s="44" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A4" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="25"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-    </row>
-    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="40" t="s">
+      <c r="C10" s="26"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="19"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="27"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="67" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="28"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="68"/>
+    </row>
+    <row r="22" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="69"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="66"/>
+    </row>
+    <row r="25" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="63"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="65"/>
+    </row>
+    <row r="29" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="24"/>
+      <c r="B30" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="13"/>
+      <c r="B31" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="13"/>
+      <c r="B32" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+    </row>
+    <row r="33" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="14"/>
+    </row>
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+    </row>
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="61"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="14"/>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="15"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="16"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="17"/>
+    </row>
+    <row r="49" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="18"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="38"/>
+      <c r="D50" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="71"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="32"/>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="71"/>
+      <c r="B52" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="34"/>
+      <c r="D52" s="35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="71"/>
+      <c r="B53" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="39"/>
-    </row>
-    <row r="24" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="7" t="s">
+      <c r="C53" s="34"/>
+      <c r="D53" s="35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="71"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="35"/>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="72"/>
+      <c r="B55" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="34"/>
+      <c r="D55" s="35"/>
+    </row>
+    <row r="56" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="D56" s="30"/>
+    </row>
+    <row r="57" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+    </row>
+    <row r="59" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="46"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+    </row>
+    <row r="60" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="58"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="60"/>
-    </row>
-    <row r="28" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="15"/>
-    </row>
-    <row r="29" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="46" t="s">
+      <c r="B60" s="46"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
+    </row>
+    <row r="61" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="48"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="51"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
-      <c r="B32" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="51"/>
-    </row>
-    <row r="33" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="54"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="18"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="18"/>
-    </row>
-    <row r="36" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-    </row>
-    <row r="37" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="56"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="56"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="31"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="31"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="18"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="19"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B48" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="20"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="21"/>
-    </row>
-    <row r="50" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-    </row>
-    <row r="51" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="B51" s="62"/>
-      <c r="C51" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" s="23"/>
-    </row>
-    <row r="52" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="63"/>
-      <c r="B52" s="64"/>
-    </row>
-    <row r="53" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="63"/>
-      <c r="B53" s="64"/>
-      <c r="C53" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-    </row>
-    <row r="54" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="63"/>
-      <c r="B54" s="64"/>
-      <c r="C54" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D54" s="25"/>
-    </row>
-    <row r="55" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="65"/>
-      <c r="B55" s="66"/>
-      <c r="C55" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D55" s="23"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C56" s="26"/>
-    </row>
-    <row r="57" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="B57" s="68"/>
-      <c r="C57" s="68"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="68"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" s="67"/>
-      <c r="C59" s="67"/>
-      <c r="D59" s="67"/>
-      <c r="E59" s="67"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="B60" s="67"/>
-      <c r="C60" s="67"/>
-      <c r="D60" s="67"/>
-      <c r="E60" s="27"/>
+      <c r="B62" s="40"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="41"/>
+      <c r="B63" s="42"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="41"/>
+      <c r="B64" s="42"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="41"/>
+      <c r="B65" s="42"/>
+    </row>
+    <row r="66" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="43"/>
+      <c r="B66" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A51:B55"/>
-    <mergeCell ref="A42:E42"/>
+  <mergeCells count="21">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A37:D38"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="A62:B66"/>
+    <mergeCell ref="A41:D41"/>
     <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="A38:E39"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A50:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A38" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A37" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId3"/>
@@ -1789,7 +1854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/files/registrace_2122.xlsx
+++ b/files/registrace_2122.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet3" sheetId="4" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'VPK DB, z.s. 2022-23'!$A$1:$D$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'VPK DB, z.s. 2022-23'!$A$1:$D$61</definedName>
   </definedNames>
   <calcPr calcId="114210"/>
 </workbook>
@@ -184,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t xml:space="preserve">Číslo účtu: </t>
   </si>
@@ -192,16 +192,10 @@
     <t xml:space="preserve">Kód banky: </t>
   </si>
   <si>
-    <t>V případě neuhrazení členského poplatku v uvedeném, případně jinak sjednaném časovém horizontu, dojde</t>
-  </si>
-  <si>
     <t>0100</t>
   </si>
   <si>
     <t>107-0938900237</t>
-  </si>
-  <si>
-    <t>k automatickému vyřazení z registru členů</t>
   </si>
   <si>
     <t>Mobil *</t>
@@ -320,6 +314,60 @@
     <t>Vaše poznámka sem, je-li potřeba:</t>
   </si>
   <si>
+    <t>Registrační karta 2022 - 2023</t>
+  </si>
+  <si>
+    <t>pro účely registrace, řádného vedení vašeho členství ve spolku VPK DEEP BLUE (identifikace plateb, aj.),</t>
+  </si>
+  <si>
+    <t>kvalifikačních karet - vše v souladu s GDPR.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Členský příspěvek musí být uhrazen včas, dle zde níže uvedených termínů </t>
+  </si>
+  <si>
+    <t>Vždy také, prosím, vyplňujte i důvod platby (Členské, , Kurzovné, Půjčovné)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pouze plavání &amp; sauba               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Studenti - 2700,- Kč   (pouze denní studium)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Pracující - 3500,- Kč   (a jakkoliv dálkově studující)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Rodinné - 5500,- Kč   (manželé s dvěma dětmi mladších 15ti let)</t>
+  </si>
+  <si>
+    <t>V případě přihlášení se do jakéhokoli kurzu po termínu 1.2.2023 - je potřeba jej uhradit (včetně členského) nejpozději do 28.2.2023</t>
+  </si>
+  <si>
+    <t>Kurz:   6700,-Kč</t>
+  </si>
+  <si>
+    <t>Kurz:   8700,-Kč</t>
+  </si>
+  <si>
+    <t>Relevantní zvýrazněte zakroužkujte</t>
+  </si>
+  <si>
+    <t>U stávajících členů do 30.10. 22- Noví členové do 6.11.2022  - pro všechny zájemce.</t>
+  </si>
+  <si>
+    <t>34 vstupů</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Studenti UK - mající TV se zápočtem: kurzovné 7.800,- Kč  Ideálně celou částku do 10.11. </t>
+  </si>
+  <si>
+    <t>dojde k automatickému vyřazení z registru členů</t>
+  </si>
+  <si>
+    <t>V případě neuhrazení členského poplatku v uvedeném, případně jinak sjednaném časovém horizontu,</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -340,59 +388,14 @@
         <family val="2"/>
         <charset val="238"/>
       </rPr>
-      <t>vaclav@apneaman.cz</t>
+      <t>vaclav.podaril@seznam.cz</t>
     </r>
   </si>
   <si>
-    <t>Registrační karta 2022 - 2023</t>
-  </si>
-  <si>
-    <t>pro účely registrace, řádného vedení vašeho členství ve spolku VPK DEEP BLUE (identifikace plateb, aj.),</t>
-  </si>
-  <si>
-    <t>kvalifikačních karet - vše v souladu s GDPR.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Členský příspěvek musí být uhrazen včas, dle zde níže uvedených termínů </t>
-  </si>
-  <si>
-    <t>Vždy také, prosím, vyplňujte i důvod platby (Členské, , Kurzovné, Půjčovné)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pouze plavání &amp; sauba               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          Studenti v rámci pot. kurzu (TV se zápočtem) - 1500,- Kč</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          Studenti - 2700,- Kč   (pouze denní studium)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          Pracující - 3500,- Kč   (a jakkoliv dálkově studující)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          Rodinné - 5500,- Kč   (manželé s dvěma dětmi mladších 15ti let)</t>
-  </si>
-  <si>
-    <t>V případě přihlášení se do jakéhokoli kurzu po termínu 1.2.2023 - je potřeba jej uhradit (včetně členského) nejpozději do 28.2.2023</t>
-  </si>
-  <si>
-    <t>Kurz:   6300,-Kč</t>
-  </si>
-  <si>
-    <t>Kurz:   6700,-Kč</t>
-  </si>
-  <si>
-    <t>Kurz:   8700,-Kč</t>
-  </si>
-  <si>
-    <t>Relevantní zvýrazněte zakroužkujte</t>
-  </si>
-  <si>
-    <t>U stávajících členů do 30.10. 22- Noví členové do 6.11.2022  - pro všechny zájemce.</t>
-  </si>
-  <si>
-    <t>34 vstupů</t>
+    <t>(po dohodě s tajemníkem klubu, lze 2 x 3900,-Kč, platba 2: do 31.12.2022)</t>
+  </si>
+  <si>
+    <t>Začínáme v neděli 9.10.2022</t>
   </si>
 </sst>
 </file>
@@ -545,12 +548,6 @@
       <charset val="238"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color rgb="FFC00000"/>
@@ -726,14 +723,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="3" tint="-0.249977111117893"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10.5"/>
       <color theme="2" tint="-0.749992370372631"/>
       <name val="Tahoma"/>
@@ -765,6 +754,23 @@
     </font>
     <font>
       <sz val="10.5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
@@ -939,9 +945,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -962,9 +968,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="top"/>
     </xf>
@@ -973,21 +976,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -996,97 +995,87 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1110,6 +1099,30 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1118,6 +1131,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1129,9 +1145,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1427,25 +1440,25 @@
   <dimension ref="A2:D66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="44.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
+      <c r="A2" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
@@ -1454,42 +1467,42 @@
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A4" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
+      <c r="A4" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
+      <c r="A6" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="25"/>
+        <v>8</v>
+      </c>
+      <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="26"/>
+      <c r="B10" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="23"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" s="5"/>
     </row>
@@ -1498,328 +1511,333 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="19"/>
+        <v>5</v>
+      </c>
+      <c r="C14" s="16"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="27"/>
+        <v>4</v>
+      </c>
+      <c r="C16" s="24"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="26"/>
+        <v>20</v>
+      </c>
+      <c r="C18" s="23"/>
       <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="28" t="s">
-        <v>23</v>
+      <c r="B20" s="25" t="s">
+        <v>21</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="67" t="s">
-        <v>40</v>
+      <c r="D20" s="60" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="28"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="68"/>
+      <c r="D21" s="61"/>
     </row>
     <row r="22" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="69"/>
+      <c r="B22" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="62"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="66"/>
+      <c r="B24" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="59"/>
     </row>
     <row r="25" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
+      <c r="C27" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="63"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="65"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="58"/>
     </row>
     <row r="29" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="24"/>
-      <c r="B30" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="45"/>
+      <c r="D30" s="46"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
-      <c r="B31" s="56" t="s">
+      <c r="A31" s="12"/>
+      <c r="B31" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="48"/>
+      <c r="D31" s="49"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="12"/>
+      <c r="B32" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="48"/>
+      <c r="D32" s="49"/>
+    </row>
+    <row r="33" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="51"/>
+      <c r="D33" s="52"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="13"/>
+    </row>
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+    </row>
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="54"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
-      <c r="B32" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-    </row>
-    <row r="33" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="14"/>
-    </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="53" t="s">
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="13"/>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B48" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="34"/>
+      <c r="D50" s="28"/>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="72"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" s="35"/>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="72"/>
+      <c r="B52" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-    </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="61"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="51" t="s">
+      <c r="C52" s="30"/>
+      <c r="D52" s="31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="72"/>
+      <c r="B53" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B45" s="14"/>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="15"/>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="16"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="17"/>
-    </row>
-    <row r="49" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="18"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="70" t="s">
-        <v>42</v>
-      </c>
-      <c r="B50" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C50" s="38"/>
-      <c r="D50" s="31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="71"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="32"/>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="71"/>
-      <c r="B52" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C52" s="34"/>
-      <c r="D52" s="35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="71"/>
-      <c r="B53" s="36" t="s">
+      <c r="C53" s="30"/>
+      <c r="D53" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="34"/>
-      <c r="D53" s="35" t="s">
+    </row>
+    <row r="54" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="72"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="31"/>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="73"/>
+      <c r="B55" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" s="30"/>
+      <c r="D55" s="31"/>
+    </row>
+    <row r="56" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="D56" s="27"/>
+    </row>
+    <row r="57" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="70"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="70"/>
+    </row>
+    <row r="59" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" s="69"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="69"/>
+    </row>
+    <row r="60" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="69" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="71"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="35"/>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="72"/>
-      <c r="B55" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55" s="34"/>
-      <c r="D55" s="35"/>
-    </row>
-    <row r="56" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="D56" s="30"/>
-    </row>
-    <row r="57" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" s="47"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-    </row>
-    <row r="59" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="B59" s="46"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="46"/>
-    </row>
-    <row r="60" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B60" s="46"/>
-      <c r="C60" s="46"/>
-      <c r="D60" s="46"/>
+      <c r="B60" s="69"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="69"/>
     </row>
     <row r="61" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B62" s="40"/>
+      <c r="A62" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="B62" s="64"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="41"/>
-      <c r="B63" s="42"/>
+      <c r="A63" s="65"/>
+      <c r="B63" s="66"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="41"/>
-      <c r="B64" s="42"/>
+      <c r="A64" s="65"/>
+      <c r="B64" s="66"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="41"/>
-      <c r="B65" s="42"/>
+      <c r="A65" s="65"/>
+      <c r="B65" s="66"/>
     </row>
     <row r="66" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="43"/>
-      <c r="B66" s="44"/>
+      <c r="A66" s="67"/>
+      <c r="B66" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A62:B66"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A50:A55"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A43:D43"/>
@@ -1835,12 +1853,6 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="D20:D22"/>
-    <mergeCell ref="A62:B66"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A50:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
